--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Amh-Amhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Amh-Amhr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.204164</v>
+        <v>0.07899133333333333</v>
       </c>
       <c r="H2">
-        <v>0.612492</v>
+        <v>0.236974</v>
       </c>
       <c r="I2">
-        <v>0.351141252641835</v>
+        <v>0.08952820636815619</v>
       </c>
       <c r="J2">
-        <v>0.3785771371035782</v>
+        <v>0.09988914039546951</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3455123333333334</v>
+        <v>0.31874</v>
       </c>
       <c r="N2">
-        <v>1.036537</v>
+        <v>0.9562200000000001</v>
       </c>
       <c r="O2">
-        <v>0.4919008906101774</v>
+        <v>0.3985153301414988</v>
       </c>
       <c r="P2">
-        <v>0.4919008906101774</v>
+        <v>0.4470072364853493</v>
       </c>
       <c r="Q2">
-        <v>0.07054118002266668</v>
+        <v>0.02517769758666667</v>
       </c>
       <c r="R2">
-        <v>0.6348706202040001</v>
+        <v>0.22659927828</v>
       </c>
       <c r="S2">
-        <v>0.1727266949044919</v>
+        <v>0.03567836271778199</v>
       </c>
       <c r="T2">
-        <v>0.1862224309059014</v>
+        <v>0.0446511686030759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.204164</v>
+        <v>0.07899133333333333</v>
       </c>
       <c r="H3">
-        <v>0.612492</v>
+        <v>0.236974</v>
       </c>
       <c r="I3">
-        <v>0.351141252641835</v>
+        <v>0.08952820636815619</v>
       </c>
       <c r="J3">
-        <v>0.3785771371035782</v>
+        <v>0.09988914039546951</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,25 +623,25 @@
         <v>0.2207826666666667</v>
       </c>
       <c r="N3">
-        <v>0.6623479999999999</v>
+        <v>0.662348</v>
       </c>
       <c r="O3">
-        <v>0.3143250757993875</v>
+        <v>0.2760409026045904</v>
       </c>
       <c r="P3">
-        <v>0.3143250757993875</v>
+        <v>0.3096299482039679</v>
       </c>
       <c r="Q3">
-        <v>0.04507587235733333</v>
+        <v>0.01743991721688889</v>
       </c>
       <c r="R3">
-        <v>0.405682851216</v>
+        <v>0.156959254952</v>
       </c>
       <c r="S3">
-        <v>0.1103725008529367</v>
+        <v>0.02471344689443587</v>
       </c>
       <c r="T3">
-        <v>0.1189962873159973</v>
+        <v>0.0309286693667881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.204164</v>
+        <v>0.07899133333333333</v>
       </c>
       <c r="H4">
-        <v>0.612492</v>
+        <v>0.236974</v>
       </c>
       <c r="I4">
-        <v>0.351141252641835</v>
+        <v>0.08952820636815619</v>
       </c>
       <c r="J4">
-        <v>0.3785771371035782</v>
+        <v>0.09988914039546951</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.03638666666666666</v>
+        <v>0.260296</v>
       </c>
       <c r="N4">
-        <v>0.10916</v>
+        <v>0.5205920000000001</v>
       </c>
       <c r="O4">
-        <v>0.0518031688391316</v>
+        <v>0.3254437672539109</v>
       </c>
       <c r="P4">
-        <v>0.05180316883913161</v>
+        <v>0.2433628153106827</v>
       </c>
       <c r="Q4">
-        <v>0.007428847413333333</v>
+        <v>0.02056112810133334</v>
       </c>
       <c r="R4">
-        <v>0.06685962672</v>
+        <v>0.123366768608</v>
       </c>
       <c r="S4">
-        <v>0.01819022959698914</v>
+        <v>0.02913639675593833</v>
       </c>
       <c r="T4">
-        <v>0.01961149535201174</v>
+        <v>0.0243093024256055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,46 +726,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.204164</v>
+        <v>0.296947</v>
       </c>
       <c r="H5">
-        <v>0.612492</v>
+        <v>0.890841</v>
       </c>
       <c r="I5">
-        <v>0.351141252641835</v>
+        <v>0.336557583908845</v>
       </c>
       <c r="J5">
-        <v>0.3785771371035782</v>
+        <v>0.3755067717093034</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09972066666666667</v>
+        <v>0.31874</v>
       </c>
       <c r="N5">
-        <v>0.299162</v>
+        <v>0.9562200000000001</v>
       </c>
       <c r="O5">
-        <v>0.1419708647513035</v>
+        <v>0.3985153301414988</v>
       </c>
       <c r="P5">
-        <v>0.1419708647513035</v>
+        <v>0.4470072364853493</v>
       </c>
       <c r="Q5">
-        <v>0.02035937018933334</v>
+        <v>0.09464888678000001</v>
       </c>
       <c r="R5">
-        <v>0.183234331704</v>
+        <v>0.85183998102</v>
       </c>
       <c r="S5">
-        <v>0.04985182728741724</v>
+        <v>0.1341233566630585</v>
       </c>
       <c r="T5">
-        <v>0.05374692352966778</v>
+        <v>0.1678542443033107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2050716666666667</v>
+        <v>0.296947</v>
       </c>
       <c r="H6">
-        <v>0.615215</v>
+        <v>0.890841</v>
       </c>
       <c r="I6">
-        <v>0.3527023467148085</v>
+        <v>0.336557583908845</v>
       </c>
       <c r="J6">
-        <v>0.3802602048731703</v>
+        <v>0.3755067717093034</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3455123333333334</v>
+        <v>0.2207826666666667</v>
       </c>
       <c r="N6">
-        <v>1.036537</v>
+        <v>0.662348</v>
       </c>
       <c r="O6">
-        <v>0.4919008906101774</v>
+        <v>0.2760409026045904</v>
       </c>
       <c r="P6">
-        <v>0.4919008906101774</v>
+        <v>0.3096299482039679</v>
       </c>
       <c r="Q6">
-        <v>0.07085479005055556</v>
+        <v>0.06556075051866668</v>
       </c>
       <c r="R6">
-        <v>0.637693110455</v>
+        <v>0.5900467546680001</v>
       </c>
       <c r="S6">
-        <v>0.1734945984693139</v>
+        <v>0.09290365924061775</v>
       </c>
       <c r="T6">
-        <v>0.187050333440721</v>
+        <v>0.1162681422745908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,51 +850,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2050716666666667</v>
+        <v>0.296947</v>
       </c>
       <c r="H7">
-        <v>0.615215</v>
+        <v>0.890841</v>
       </c>
       <c r="I7">
-        <v>0.3527023467148085</v>
+        <v>0.336557583908845</v>
       </c>
       <c r="J7">
-        <v>0.3802602048731703</v>
+        <v>0.3755067717093034</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.2207826666666667</v>
+        <v>0.260296</v>
       </c>
       <c r="N7">
-        <v>0.6623479999999999</v>
+        <v>0.5205920000000001</v>
       </c>
       <c r="O7">
-        <v>0.3143250757993875</v>
+        <v>0.3254437672539109</v>
       </c>
       <c r="P7">
-        <v>0.3143250757993875</v>
+        <v>0.2433628153106827</v>
       </c>
       <c r="Q7">
-        <v>0.04527626942444444</v>
+        <v>0.07729411631200002</v>
       </c>
       <c r="R7">
-        <v>0.4074864248199999</v>
+        <v>0.463764697872</v>
       </c>
       <c r="S7">
-        <v>0.110863191865754</v>
+        <v>0.1095305680051687</v>
       </c>
       <c r="T7">
-        <v>0.1195253177202499</v>
+        <v>0.09138438513140187</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,60 +903,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.27455</v>
+      </c>
+      <c r="H8">
+        <v>0.5491</v>
+      </c>
+      <c r="I8">
+        <v>0.3111729859610415</v>
+      </c>
+      <c r="J8">
+        <v>0.2314563074056745</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.2050716666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.615215</v>
-      </c>
-      <c r="I8">
-        <v>0.3527023467148085</v>
-      </c>
-      <c r="J8">
-        <v>0.3802602048731703</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.03638666666666666</v>
+        <v>0.31874</v>
       </c>
       <c r="N8">
-        <v>0.10916</v>
+        <v>0.9562200000000001</v>
       </c>
       <c r="O8">
-        <v>0.0518031688391316</v>
+        <v>0.3985153301414988</v>
       </c>
       <c r="P8">
-        <v>0.05180316883913161</v>
+        <v>0.4470072364853493</v>
       </c>
       <c r="Q8">
-        <v>0.007461874377777776</v>
+        <v>0.08751006700000001</v>
       </c>
       <c r="R8">
-        <v>0.06715686939999999</v>
+        <v>0.525060402</v>
       </c>
       <c r="S8">
-        <v>0.01827109921682516</v>
+        <v>0.1240072052313804</v>
       </c>
       <c r="T8">
-        <v>0.01969868359584762</v>
+        <v>0.1034626443405141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,55 +965,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.27455</v>
+      </c>
+      <c r="H9">
+        <v>0.5491</v>
+      </c>
+      <c r="I9">
+        <v>0.3111729859610415</v>
+      </c>
+      <c r="J9">
+        <v>0.2314563074056745</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.2050716666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.615215</v>
-      </c>
-      <c r="I9">
-        <v>0.3527023467148085</v>
-      </c>
-      <c r="J9">
-        <v>0.3802602048731703</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M9">
-        <v>0.09972066666666667</v>
+        <v>0.2207826666666667</v>
       </c>
       <c r="N9">
-        <v>0.299162</v>
+        <v>0.662348</v>
       </c>
       <c r="O9">
-        <v>0.1419708647513035</v>
+        <v>0.2760409026045904</v>
       </c>
       <c r="P9">
-        <v>0.1419708647513035</v>
+        <v>0.3096299482039679</v>
       </c>
       <c r="Q9">
-        <v>0.02044988331444444</v>
+        <v>0.06061588113333334</v>
       </c>
       <c r="R9">
-        <v>0.18404894983</v>
+        <v>0.3636952868000001</v>
       </c>
       <c r="S9">
-        <v>0.05007345716291543</v>
+        <v>0.08589647191085145</v>
       </c>
       <c r="T9">
-        <v>0.05398587011635182</v>
+        <v>0.07166580447350067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,51 +1036,51 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.1264105</v>
+        <v>0.27455</v>
       </c>
       <c r="H10">
-        <v>0.252821</v>
+        <v>0.5491</v>
       </c>
       <c r="I10">
-        <v>0.2174131645005029</v>
+        <v>0.3111729859610415</v>
       </c>
       <c r="J10">
-        <v>0.1562669396166215</v>
+        <v>0.2314563074056745</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.3455123333333334</v>
+        <v>0.260296</v>
       </c>
       <c r="N10">
-        <v>1.036537</v>
+        <v>0.5205920000000001</v>
       </c>
       <c r="O10">
-        <v>0.4919008906101774</v>
+        <v>0.3254437672539109</v>
       </c>
       <c r="P10">
-        <v>0.4919008906101774</v>
+        <v>0.2433628153106827</v>
       </c>
       <c r="Q10">
-        <v>0.04367638681283334</v>
+        <v>0.07146426680000001</v>
       </c>
       <c r="R10">
-        <v>0.262058320877</v>
+        <v>0.2858570672</v>
       </c>
       <c r="S10">
-        <v>0.1069457292481744</v>
+        <v>0.1012693088188097</v>
       </c>
       <c r="T10">
-        <v>0.07686784677034295</v>
+        <v>0.05632785859165976</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,25 +1089,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1264105</v>
+        <v>0.2318183333333333</v>
       </c>
       <c r="H11">
-        <v>0.252821</v>
+        <v>0.695455</v>
       </c>
       <c r="I11">
-        <v>0.2174131645005029</v>
+        <v>0.2627412237619573</v>
       </c>
       <c r="J11">
-        <v>0.1562669396166215</v>
+        <v>0.2931477804895526</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,33 +1116,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2207826666666667</v>
+        <v>0.31874</v>
       </c>
       <c r="N11">
-        <v>0.6623479999999999</v>
+        <v>0.9562200000000001</v>
       </c>
       <c r="O11">
-        <v>0.3143250757993875</v>
+        <v>0.3985153301414988</v>
       </c>
       <c r="P11">
-        <v>0.3143250757993875</v>
+        <v>0.4470072364853493</v>
       </c>
       <c r="Q11">
-        <v>0.02790924728466667</v>
+        <v>0.07388977556666668</v>
       </c>
       <c r="R11">
-        <v>0.167455483708</v>
+        <v>0.6650079801000001</v>
       </c>
       <c r="S11">
-        <v>0.06833840941140529</v>
+        <v>0.1047064055292778</v>
       </c>
       <c r="T11">
-        <v>0.04911861763993287</v>
+        <v>0.1310391792384487</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,60 +1151,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1264105</v>
+        <v>0.2318183333333333</v>
       </c>
       <c r="H12">
-        <v>0.252821</v>
+        <v>0.695455</v>
       </c>
       <c r="I12">
-        <v>0.2174131645005029</v>
+        <v>0.2627412237619573</v>
       </c>
       <c r="J12">
-        <v>0.1562669396166215</v>
+        <v>0.2931477804895526</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.03638666666666666</v>
+        <v>0.2207826666666667</v>
       </c>
       <c r="N12">
-        <v>0.10916</v>
+        <v>0.662348</v>
       </c>
       <c r="O12">
-        <v>0.0518031688391316</v>
+        <v>0.2760409026045904</v>
       </c>
       <c r="P12">
-        <v>0.05180316883913161</v>
+        <v>0.3096299482039679</v>
       </c>
       <c r="Q12">
-        <v>0.004599656726666667</v>
+        <v>0.05118146981555556</v>
       </c>
       <c r="R12">
-        <v>0.02759794036</v>
+        <v>0.4606332283400001</v>
       </c>
       <c r="S12">
-        <v>0.01126269086846945</v>
+        <v>0.07252732455868535</v>
       </c>
       <c r="T12">
-        <v>0.008095122656934229</v>
+        <v>0.09076733208908834</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,303 +1213,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.2318183333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.695455</v>
+      </c>
+      <c r="I13">
+        <v>0.2627412237619573</v>
+      </c>
+      <c r="J13">
+        <v>0.2931477804895526</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.5</v>
       </c>
-      <c r="G13">
-        <v>0.1264105</v>
-      </c>
-      <c r="H13">
-        <v>0.252821</v>
-      </c>
-      <c r="I13">
-        <v>0.2174131645005029</v>
-      </c>
-      <c r="J13">
-        <v>0.1562669396166215</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M13">
-        <v>0.09972066666666667</v>
+        <v>0.260296</v>
       </c>
       <c r="N13">
-        <v>0.299162</v>
+        <v>0.5205920000000001</v>
       </c>
       <c r="O13">
-        <v>0.1419708647513035</v>
+        <v>0.3254437672539109</v>
       </c>
       <c r="P13">
-        <v>0.1419708647513035</v>
+        <v>0.2433628153106827</v>
       </c>
       <c r="Q13">
-        <v>0.01260573933366667</v>
+        <v>0.06034138489333334</v>
       </c>
       <c r="R13">
-        <v>0.075634436002</v>
+        <v>0.36204830936</v>
       </c>
       <c r="S13">
-        <v>0.0308663349724538</v>
+        <v>0.08550749367399417</v>
       </c>
       <c r="T13">
-        <v>0.02218535254941148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.04578366666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.137351</v>
-      </c>
-      <c r="I14">
-        <v>0.07874323614285358</v>
-      </c>
-      <c r="J14">
-        <v>0.08489571840662991</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.3455123333333334</v>
-      </c>
-      <c r="N14">
-        <v>1.036537</v>
-      </c>
-      <c r="O14">
-        <v>0.4919008906101774</v>
-      </c>
-      <c r="P14">
-        <v>0.4919008906101774</v>
-      </c>
-      <c r="Q14">
-        <v>0.01581882149855556</v>
-      </c>
-      <c r="R14">
-        <v>0.142369393487</v>
-      </c>
-      <c r="S14">
-        <v>0.03873386798819719</v>
-      </c>
-      <c r="T14">
-        <v>0.04176027949321209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.04578366666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.137351</v>
-      </c>
-      <c r="I15">
-        <v>0.07874323614285358</v>
-      </c>
-      <c r="J15">
-        <v>0.08489571840662991</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.2207826666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.6623479999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.3143250757993875</v>
-      </c>
-      <c r="P15">
-        <v>0.3143250757993875</v>
-      </c>
-      <c r="Q15">
-        <v>0.01010824001644444</v>
-      </c>
-      <c r="R15">
-        <v>0.09097416014799999</v>
-      </c>
-      <c r="S15">
-        <v>0.02475097366929152</v>
-      </c>
-      <c r="T15">
-        <v>0.0266848531232074</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.04578366666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.137351</v>
-      </c>
-      <c r="I16">
-        <v>0.07874323614285358</v>
-      </c>
-      <c r="J16">
-        <v>0.08489571840662991</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.03638666666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.10916</v>
-      </c>
-      <c r="O16">
-        <v>0.0518031688391316</v>
-      </c>
-      <c r="P16">
-        <v>0.05180316883913161</v>
-      </c>
-      <c r="Q16">
-        <v>0.001665915017777778</v>
-      </c>
-      <c r="R16">
-        <v>0.01499323516</v>
-      </c>
-      <c r="S16">
-        <v>0.004079149156847854</v>
-      </c>
-      <c r="T16">
-        <v>0.004397867234338022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.04578366666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.137351</v>
-      </c>
-      <c r="I17">
-        <v>0.07874323614285358</v>
-      </c>
-      <c r="J17">
-        <v>0.08489571840662991</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.09972066666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.299162</v>
-      </c>
-      <c r="O17">
-        <v>0.1419708647513035</v>
-      </c>
-      <c r="P17">
-        <v>0.1419708647513035</v>
-      </c>
-      <c r="Q17">
-        <v>0.004565577762444445</v>
-      </c>
-      <c r="R17">
-        <v>0.041090199862</v>
-      </c>
-      <c r="S17">
-        <v>0.01117924532851702</v>
-      </c>
-      <c r="T17">
-        <v>0.0120527185558724</v>
+        <v>0.07134126916201555</v>
       </c>
     </row>
   </sheetData>
